--- a/Module & Function.xlsx
+++ b/Module & Function.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Module</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Registration</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>Insert</t>
   </si>
   <si>
-    <t>Select &amp; Insert</t>
-  </si>
-  <si>
     <t>Select &amp; Update</t>
   </si>
   <si>
@@ -137,6 +131,9 @@
   </si>
   <si>
     <t>Update</t>
+  </si>
+  <si>
+    <t>Insert &amp; Update</t>
   </si>
 </sst>
 </file>
@@ -623,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -660,7 +657,7 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -668,11 +665,11 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
@@ -681,7 +678,7 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
@@ -689,53 +686,53 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" customHeight="1">
       <c r="B10" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
@@ -744,19 +741,19 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
@@ -765,19 +762,19 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8" t="s">
@@ -786,19 +783,19 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9" t="s">
@@ -807,12 +804,12 @@
     </row>
     <row r="18" spans="2:10" ht="29.25" customHeight="1">
       <c r="B18" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
@@ -820,11 +817,11 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
@@ -833,19 +830,19 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5" t="s">
@@ -854,23 +851,23 @@
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
